--- a/database/industries/siman/sekhouz/official/quarterly.xlsx
+++ b/database/industries/siman/sekhouz/official/quarterly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -31,6 +31,21 @@
   </si>
   <si>
     <t>هزینه های عمومی و اداری</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
   </si>
   <si>
     <t>فصل دوم منتهی به 1400/06</t>
@@ -503,16 +518,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I31"/>
+  <dimension ref="B1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -521,8 +536,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -533,8 +553,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -545,8 +570,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -555,8 +585,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -567,8 +602,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -579,8 +619,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -589,8 +634,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -611,8 +661,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -621,32 +686,52 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>84595</v>
+      </c>
+      <c r="F10" s="9">
+        <v>260546</v>
+      </c>
+      <c r="G10" s="9">
+        <v>207394</v>
+      </c>
+      <c r="H10" s="9">
+        <v>315925</v>
+      </c>
+      <c r="I10" s="9">
+        <v>84595</v>
+      </c>
+      <c r="J10" s="9">
         <v>455581</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>553197</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>501708</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>435006</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>406444</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -665,10 +750,25 @@
       <c r="I11" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -687,32 +787,62 @@
       <c r="I12" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>620</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1240</v>
+      </c>
+      <c r="G13" s="11">
+        <v>705</v>
+      </c>
+      <c r="H13" s="11">
+        <v>-1283</v>
+      </c>
+      <c r="I13" s="11">
+        <v>637</v>
+      </c>
+      <c r="J13" s="11">
         <v>50</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>765</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>1094</v>
       </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
         <v>1211</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -731,76 +861,136 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
+        <v>65</v>
+      </c>
+      <c r="F15" s="11">
+        <v>255</v>
+      </c>
+      <c r="G15" s="11">
+        <v>-139</v>
+      </c>
+      <c r="H15" s="11">
+        <v>515</v>
+      </c>
+      <c r="I15" s="11">
+        <v>76</v>
+      </c>
+      <c r="J15" s="11">
         <v>322</v>
       </c>
-      <c r="F15" s="11">
+      <c r="K15" s="11">
         <v>144</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L15" s="11">
         <v>313</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>355</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N15" s="11">
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>906</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-215</v>
+      </c>
+      <c r="G16" s="9">
+        <v>92</v>
+      </c>
+      <c r="H16" s="9">
+        <v>2354</v>
+      </c>
+      <c r="I16" s="9">
+        <v>563</v>
+      </c>
+      <c r="J16" s="9">
         <v>3987</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>-4285</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>9147</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>5511</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>7251</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
+        <v>16726</v>
+      </c>
+      <c r="F17" s="11">
+        <v>7764</v>
+      </c>
+      <c r="G17" s="11">
+        <v>8395</v>
+      </c>
+      <c r="H17" s="11">
+        <v>27867</v>
+      </c>
+      <c r="I17" s="11">
+        <v>16726</v>
+      </c>
+      <c r="J17" s="11">
         <v>23878</v>
       </c>
-      <c r="F17" s="11">
+      <c r="K17" s="11">
         <v>-14449</v>
       </c>
-      <c r="G17" s="11">
+      <c r="L17" s="11">
         <v>47376</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>15618</v>
       </c>
-      <c r="I17" s="11">
+      <c r="N17" s="11">
         <v>38207</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -819,52 +1009,97 @@
       <c r="I18" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
+        <v>798</v>
+      </c>
+      <c r="F19" s="11">
+        <v>39725</v>
+      </c>
+      <c r="G19" s="11">
+        <v>-11575</v>
+      </c>
+      <c r="H19" s="11">
+        <v>67242</v>
+      </c>
+      <c r="I19" s="11">
+        <v>252896</v>
+      </c>
+      <c r="J19" s="11">
         <v>-223817</v>
       </c>
-      <c r="F19" s="11">
+      <c r="K19" s="11">
         <v>40562</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>28237</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>23808</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>37312</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
+        <v>103710</v>
+      </c>
+      <c r="F20" s="13">
+        <v>309315</v>
+      </c>
+      <c r="G20" s="13">
+        <v>204872</v>
+      </c>
+      <c r="H20" s="13">
+        <v>412620</v>
+      </c>
+      <c r="I20" s="13">
+        <v>355493</v>
+      </c>
+      <c r="J20" s="13">
         <v>260001</v>
       </c>
-      <c r="F20" s="13">
+      <c r="K20" s="13">
         <v>575934</v>
       </c>
-      <c r="G20" s="13">
+      <c r="L20" s="13">
         <v>587875</v>
       </c>
-      <c r="H20" s="13">
+      <c r="M20" s="13">
         <v>480298</v>
       </c>
-      <c r="I20" s="13">
+      <c r="N20" s="13">
         <v>490591</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -873,8 +1108,13 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -883,8 +1123,13 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -893,10 +1138,15 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -915,8 +1165,23 @@
       <c r="I24" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -925,21 +1190,26 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="F26" s="9">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="G26" s="9">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H26" s="9">
         <v>234</v>
@@ -947,21 +1217,36 @@
       <c r="I26" s="9">
         <v>234</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="9">
+        <v>211</v>
+      </c>
+      <c r="K26" s="9">
+        <v>211</v>
+      </c>
+      <c r="L26" s="9">
+        <v>234</v>
+      </c>
+      <c r="M26" s="9">
+        <v>234</v>
+      </c>
+      <c r="N26" s="9">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F27" s="11">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G27" s="11">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H27" s="11">
         <v>24</v>
@@ -969,8 +1254,23 @@
       <c r="I27" s="11">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="11">
+        <v>20</v>
+      </c>
+      <c r="K27" s="11">
+        <v>20</v>
+      </c>
+      <c r="L27" s="11">
+        <v>24</v>
+      </c>
+      <c r="M27" s="11">
+        <v>24</v>
+      </c>
+      <c r="N27" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -979,8 +1279,13 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -989,8 +1294,13 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -999,8 +1309,13 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1009,6 +1324,11 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/siman/sekhouz/official/quarterly.xlsx
+++ b/database/industries/siman/sekhouz/official/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\siman\sekhouz\official\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhouz\official\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591DFC1D-6963-41F5-8D8C-BA1341B4E26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -108,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -272,7 +273,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -284,7 +285,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -331,6 +332,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -366,6 +384,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -517,17 +552,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -542,7 +577,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -559,7 +594,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -576,7 +611,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -591,7 +626,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -608,7 +643,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -625,7 +660,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -640,7 +675,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -677,7 +712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -692,7 +727,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -729,7 +764,7 @@
         <v>406444</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -766,7 +801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
@@ -803,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>17</v>
       </c>
@@ -840,7 +875,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -877,7 +912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -914,7 +949,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
@@ -951,7 +986,7 @@
         <v>7251</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -988,7 +1023,7 @@
         <v>38207</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
@@ -1025,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1062,7 +1097,7 @@
         <v>37312</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>24</v>
       </c>
@@ -1099,7 +1134,7 @@
         <v>490591</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1114,7 +1149,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1129,7 +1164,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1144,7 +1179,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>25</v>
       </c>
@@ -1181,7 +1216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1196,7 +1231,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>26</v>
       </c>
@@ -1233,7 +1268,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>27</v>
       </c>
@@ -1270,7 +1305,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1285,7 +1320,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1300,7 +1335,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1315,7 +1350,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>

--- a/database/industries/siman/sekhouz/official/quarterly.xlsx
+++ b/database/industries/siman/sekhouz/official/quarterly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhouz\official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591DFC1D-6963-41F5-8D8C-BA1341B4E26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,33 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>سخوز-سیمان خوزستان</t>
   </si>
   <si>
     <t>هزینه های عمومی و اداری</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
   </si>
   <si>
     <t>فصل دوم منتهی به 1400/06</t>
@@ -109,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -273,7 +257,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -285,7 +269,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -332,23 +316,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -384,23 +351,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -552,17 +502,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -571,13 +521,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -588,13 +533,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -605,13 +545,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -620,13 +555,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -637,13 +567,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -654,13 +579,8 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -669,13 +589,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -696,23 +611,8 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -721,52 +621,32 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>84595</v>
+        <v>455581</v>
       </c>
       <c r="F10" s="9">
-        <v>260546</v>
+        <v>553197</v>
       </c>
       <c r="G10" s="9">
-        <v>207394</v>
+        <v>501708</v>
       </c>
       <c r="H10" s="9">
-        <v>315925</v>
+        <v>435006</v>
       </c>
       <c r="I10" s="9">
-        <v>84595</v>
-      </c>
-      <c r="J10" s="9">
-        <v>455581</v>
-      </c>
-      <c r="K10" s="9">
-        <v>553197</v>
-      </c>
-      <c r="L10" s="9">
-        <v>501708</v>
-      </c>
-      <c r="M10" s="9">
-        <v>435006</v>
-      </c>
-      <c r="N10" s="9">
         <v>406444</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -785,25 +665,10 @@
       <c r="I11" s="11">
         <v>0</v>
       </c>
-      <c r="J11" s="11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -822,62 +687,32 @@
       <c r="I12" s="9">
         <v>0</v>
       </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9">
-        <v>0</v>
-      </c>
-      <c r="N12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>620</v>
+        <v>50</v>
       </c>
       <c r="F13" s="11">
-        <v>1240</v>
+        <v>765</v>
       </c>
       <c r="G13" s="11">
-        <v>705</v>
+        <v>1094</v>
       </c>
       <c r="H13" s="11">
-        <v>-1283</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
-        <v>637</v>
-      </c>
-      <c r="J13" s="11">
-        <v>50</v>
-      </c>
-      <c r="K13" s="11">
-        <v>765</v>
-      </c>
-      <c r="L13" s="11">
-        <v>1094</v>
-      </c>
-      <c r="M13" s="11">
-        <v>0</v>
-      </c>
-      <c r="N13" s="11">
         <v>1211</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -896,136 +731,76 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>65</v>
+        <v>322</v>
       </c>
       <c r="F15" s="11">
-        <v>255</v>
+        <v>144</v>
       </c>
       <c r="G15" s="11">
-        <v>-139</v>
+        <v>313</v>
       </c>
       <c r="H15" s="11">
-        <v>515</v>
+        <v>355</v>
       </c>
       <c r="I15" s="11">
-        <v>76</v>
-      </c>
-      <c r="J15" s="11">
-        <v>322</v>
-      </c>
-      <c r="K15" s="11">
-        <v>144</v>
-      </c>
-      <c r="L15" s="11">
-        <v>313</v>
-      </c>
-      <c r="M15" s="11">
-        <v>355</v>
-      </c>
-      <c r="N15" s="11">
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>906</v>
+        <v>3987</v>
       </c>
       <c r="F16" s="9">
-        <v>-215</v>
+        <v>-4285</v>
       </c>
       <c r="G16" s="9">
-        <v>92</v>
+        <v>9147</v>
       </c>
       <c r="H16" s="9">
-        <v>2354</v>
+        <v>5511</v>
       </c>
       <c r="I16" s="9">
-        <v>563</v>
-      </c>
-      <c r="J16" s="9">
-        <v>3987</v>
-      </c>
-      <c r="K16" s="9">
-        <v>-4285</v>
-      </c>
-      <c r="L16" s="9">
-        <v>9147</v>
-      </c>
-      <c r="M16" s="9">
-        <v>5511</v>
-      </c>
-      <c r="N16" s="9">
         <v>7251</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>16726</v>
+        <v>23878</v>
       </c>
       <c r="F17" s="11">
-        <v>7764</v>
+        <v>-14449</v>
       </c>
       <c r="G17" s="11">
-        <v>8395</v>
+        <v>47376</v>
       </c>
       <c r="H17" s="11">
-        <v>27867</v>
+        <v>15618</v>
       </c>
       <c r="I17" s="11">
-        <v>16726</v>
-      </c>
-      <c r="J17" s="11">
-        <v>23878</v>
-      </c>
-      <c r="K17" s="11">
-        <v>-14449</v>
-      </c>
-      <c r="L17" s="11">
-        <v>47376</v>
-      </c>
-      <c r="M17" s="11">
-        <v>15618</v>
-      </c>
-      <c r="N17" s="11">
         <v>38207</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1044,97 +819,52 @@
       <c r="I18" s="9">
         <v>0</v>
       </c>
-      <c r="J18" s="9">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9">
-        <v>0</v>
-      </c>
-      <c r="L18" s="9">
-        <v>0</v>
-      </c>
-      <c r="M18" s="9">
-        <v>0</v>
-      </c>
-      <c r="N18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>798</v>
+        <v>-223817</v>
       </c>
       <c r="F19" s="11">
-        <v>39725</v>
+        <v>40562</v>
       </c>
       <c r="G19" s="11">
-        <v>-11575</v>
+        <v>28237</v>
       </c>
       <c r="H19" s="11">
-        <v>67242</v>
+        <v>23808</v>
       </c>
       <c r="I19" s="11">
-        <v>252896</v>
-      </c>
-      <c r="J19" s="11">
-        <v>-223817</v>
-      </c>
-      <c r="K19" s="11">
-        <v>40562</v>
-      </c>
-      <c r="L19" s="11">
-        <v>28237</v>
-      </c>
-      <c r="M19" s="11">
-        <v>23808</v>
-      </c>
-      <c r="N19" s="11">
         <v>37312</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>103710</v>
+        <v>260001</v>
       </c>
       <c r="F20" s="13">
-        <v>309315</v>
+        <v>575934</v>
       </c>
       <c r="G20" s="13">
-        <v>204872</v>
+        <v>587875</v>
       </c>
       <c r="H20" s="13">
-        <v>412620</v>
+        <v>480298</v>
       </c>
       <c r="I20" s="13">
-        <v>355493</v>
-      </c>
-      <c r="J20" s="13">
-        <v>260001</v>
-      </c>
-      <c r="K20" s="13">
-        <v>575934</v>
-      </c>
-      <c r="L20" s="13">
-        <v>587875</v>
-      </c>
-      <c r="M20" s="13">
-        <v>480298</v>
-      </c>
-      <c r="N20" s="13">
         <v>490591</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1143,13 +873,8 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1158,13 +883,8 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1173,15 +893,10 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1200,23 +915,8 @@
       <c r="I24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1225,26 +925,21 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="F26" s="9">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="G26" s="9">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="H26" s="9">
         <v>234</v>
@@ -1252,36 +947,21 @@
       <c r="I26" s="9">
         <v>234</v>
       </c>
-      <c r="J26" s="9">
-        <v>211</v>
-      </c>
-      <c r="K26" s="9">
-        <v>211</v>
-      </c>
-      <c r="L26" s="9">
-        <v>234</v>
-      </c>
-      <c r="M26" s="9">
-        <v>234</v>
-      </c>
-      <c r="N26" s="9">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F27" s="11">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G27" s="11">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H27" s="11">
         <v>24</v>
@@ -1289,23 +969,8 @@
       <c r="I27" s="11">
         <v>24</v>
       </c>
-      <c r="J27" s="11">
-        <v>20</v>
-      </c>
-      <c r="K27" s="11">
-        <v>20</v>
-      </c>
-      <c r="L27" s="11">
-        <v>24</v>
-      </c>
-      <c r="M27" s="11">
-        <v>24</v>
-      </c>
-      <c r="N27" s="11">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1314,13 +979,8 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1329,13 +989,8 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1344,13 +999,8 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1359,11 +1009,6 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/siman/sekhouz/official/quarterly.xlsx
+++ b/database/industries/siman/sekhouz/official/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhouz\official\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B70999-940E-4A22-875F-10BCAB09B347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -33,9 +34,6 @@
     <t>هزینه های عمومی و اداری</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -46,6 +44,9 @@
   </si>
   <si>
     <t>فصل دوم منتهی به 1401/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
     <t>هزینه حمل و نقل و انتقال</t>
@@ -93,7 +94,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -257,7 +258,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -269,7 +270,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -316,6 +317,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -351,6 +369,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -502,17 +537,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -522,7 +557,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -534,7 +569,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -546,7 +581,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -556,7 +591,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -568,7 +603,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -580,7 +615,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -590,7 +625,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -612,7 +647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -622,29 +657,29 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>455581</v>
+        <v>553197</v>
       </c>
       <c r="F10" s="9">
-        <v>553197</v>
+        <v>501708</v>
       </c>
       <c r="G10" s="9">
-        <v>501708</v>
+        <v>435006</v>
       </c>
       <c r="H10" s="9">
-        <v>435006</v>
+        <v>406444</v>
       </c>
       <c r="I10" s="9">
-        <v>406444</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>787781</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -666,7 +701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -688,29 +723,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>50</v>
+        <v>765</v>
       </c>
       <c r="F13" s="11">
-        <v>765</v>
+        <v>1094</v>
       </c>
       <c r="G13" s="11">
-        <v>1094</v>
+        <v>0</v>
       </c>
       <c r="H13" s="11">
-        <v>0</v>
+        <v>1211</v>
       </c>
       <c r="I13" s="11">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1211</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -732,73 +767,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>322</v>
+        <v>144</v>
       </c>
       <c r="F15" s="11">
-        <v>144</v>
+        <v>313</v>
       </c>
       <c r="G15" s="11">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="H15" s="11">
-        <v>355</v>
+        <v>166</v>
       </c>
       <c r="I15" s="11">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>3987</v>
+        <v>-4285</v>
       </c>
       <c r="F16" s="9">
-        <v>-4285</v>
+        <v>9147</v>
       </c>
       <c r="G16" s="9">
-        <v>9147</v>
+        <v>5511</v>
       </c>
       <c r="H16" s="9">
-        <v>5511</v>
+        <v>7251</v>
       </c>
       <c r="I16" s="9">
-        <v>7251</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-12762</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>23878</v>
+        <v>-14449</v>
       </c>
       <c r="F17" s="11">
-        <v>-14449</v>
+        <v>47376</v>
       </c>
       <c r="G17" s="11">
-        <v>47376</v>
+        <v>15618</v>
       </c>
       <c r="H17" s="11">
-        <v>15618</v>
+        <v>38207</v>
       </c>
       <c r="I17" s="11">
-        <v>38207</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17300</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>17</v>
       </c>
@@ -820,51 +855,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>-223817</v>
+        <v>40562</v>
       </c>
       <c r="F19" s="11">
-        <v>40562</v>
+        <v>28237</v>
       </c>
       <c r="G19" s="11">
-        <v>28237</v>
+        <v>23808</v>
       </c>
       <c r="H19" s="11">
-        <v>23808</v>
+        <v>37312</v>
       </c>
       <c r="I19" s="11">
-        <v>37312</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>37376</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>260001</v>
+        <v>575934</v>
       </c>
       <c r="F20" s="13">
-        <v>575934</v>
+        <v>587875</v>
       </c>
       <c r="G20" s="13">
-        <v>587875</v>
+        <v>480298</v>
       </c>
       <c r="H20" s="13">
-        <v>480298</v>
+        <v>490591</v>
       </c>
       <c r="I20" s="13">
-        <v>490591</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>828416</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -874,7 +909,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -884,7 +919,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -894,7 +929,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
@@ -916,7 +951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -926,7 +961,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>21</v>
       </c>
@@ -936,7 +971,7 @@
         <v>211</v>
       </c>
       <c r="F26" s="9">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="G26" s="9">
         <v>234</v>
@@ -948,7 +983,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>22</v>
       </c>
@@ -958,7 +993,7 @@
         <v>20</v>
       </c>
       <c r="F27" s="11">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G27" s="11">
         <v>24</v>
@@ -970,7 +1005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -980,7 +1015,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -990,7 +1025,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1000,7 +1035,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>

--- a/database/industries/siman/sekhouz/official/quarterly.xlsx
+++ b/database/industries/siman/sekhouz/official/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhouz\official\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhouz\official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B70999-940E-4A22-875F-10BCAB09B347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA863B67-A3CA-4892-AF24-578D4CB58C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>هزینه های عمومی و اداری</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -538,16 +553,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I31"/>
+  <dimension ref="B1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -556,8 +571,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -568,8 +588,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -580,8 +605,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -590,8 +620,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -602,8 +637,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -614,8 +654,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -624,8 +669,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -646,8 +696,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -656,32 +721,52 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>260546</v>
+      </c>
+      <c r="F10" s="9">
+        <v>207394</v>
+      </c>
+      <c r="G10" s="9">
+        <v>315925</v>
+      </c>
+      <c r="H10" s="9">
+        <v>84595</v>
+      </c>
+      <c r="I10" s="9">
+        <v>455581</v>
+      </c>
+      <c r="J10" s="9">
         <v>553197</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>501708</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>435006</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>406444</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>787781</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -700,10 +785,25 @@
       <c r="I11" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -722,32 +822,62 @@
       <c r="I12" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>1240</v>
+      </c>
+      <c r="F13" s="11">
+        <v>705</v>
+      </c>
+      <c r="G13" s="11">
+        <v>-1283</v>
+      </c>
+      <c r="H13" s="11">
+        <v>637</v>
+      </c>
+      <c r="I13" s="11">
+        <v>50</v>
+      </c>
+      <c r="J13" s="11">
         <v>765</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>1094</v>
       </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
         <v>1211</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>-1211</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -766,76 +896,136 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
+        <v>255</v>
+      </c>
+      <c r="F15" s="11">
+        <v>-139</v>
+      </c>
+      <c r="G15" s="11">
+        <v>515</v>
+      </c>
+      <c r="H15" s="11">
+        <v>76</v>
+      </c>
+      <c r="I15" s="11">
+        <v>322</v>
+      </c>
+      <c r="J15" s="11">
         <v>144</v>
       </c>
-      <c r="F15" s="11">
+      <c r="K15" s="11">
         <v>313</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L15" s="11">
         <v>355</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>166</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N15" s="11">
         <v>-68</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>-215</v>
+      </c>
+      <c r="F16" s="9">
+        <v>92</v>
+      </c>
+      <c r="G16" s="9">
+        <v>2354</v>
+      </c>
+      <c r="H16" s="9">
+        <v>563</v>
+      </c>
+      <c r="I16" s="9">
+        <v>3987</v>
+      </c>
+      <c r="J16" s="9">
         <v>-4285</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>9147</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>5511</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>7251</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>-12762</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
+        <v>7764</v>
+      </c>
+      <c r="F17" s="11">
+        <v>8395</v>
+      </c>
+      <c r="G17" s="11">
+        <v>27867</v>
+      </c>
+      <c r="H17" s="11">
+        <v>16726</v>
+      </c>
+      <c r="I17" s="11">
+        <v>23878</v>
+      </c>
+      <c r="J17" s="11">
         <v>-14449</v>
       </c>
-      <c r="F17" s="11">
+      <c r="K17" s="11">
         <v>47376</v>
       </c>
-      <c r="G17" s="11">
+      <c r="L17" s="11">
         <v>15618</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>38207</v>
       </c>
-      <c r="I17" s="11">
+      <c r="N17" s="11">
         <v>17300</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -854,52 +1044,97 @@
       <c r="I18" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
+        <v>39725</v>
+      </c>
+      <c r="F19" s="11">
+        <v>-11575</v>
+      </c>
+      <c r="G19" s="11">
+        <v>67242</v>
+      </c>
+      <c r="H19" s="11">
+        <v>252896</v>
+      </c>
+      <c r="I19" s="11">
+        <v>-223817</v>
+      </c>
+      <c r="J19" s="11">
         <v>40562</v>
       </c>
-      <c r="F19" s="11">
+      <c r="K19" s="11">
         <v>28237</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>23808</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>37312</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>37376</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
+        <v>309315</v>
+      </c>
+      <c r="F20" s="13">
+        <v>204872</v>
+      </c>
+      <c r="G20" s="13">
+        <v>412620</v>
+      </c>
+      <c r="H20" s="13">
+        <v>355493</v>
+      </c>
+      <c r="I20" s="13">
+        <v>260001</v>
+      </c>
+      <c r="J20" s="13">
         <v>575934</v>
       </c>
-      <c r="F20" s="13">
+      <c r="K20" s="13">
         <v>587875</v>
       </c>
-      <c r="G20" s="13">
+      <c r="L20" s="13">
         <v>480298</v>
       </c>
-      <c r="H20" s="13">
+      <c r="M20" s="13">
         <v>490591</v>
       </c>
-      <c r="I20" s="13">
+      <c r="N20" s="13">
         <v>828416</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -908,8 +1143,13 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -918,8 +1158,13 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -928,10 +1173,15 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -950,8 +1200,23 @@
       <c r="I24" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -960,18 +1225,23 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="F26" s="9">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G26" s="9">
         <v>234</v>
@@ -980,20 +1250,35 @@
         <v>234</v>
       </c>
       <c r="I26" s="9">
+        <v>211</v>
+      </c>
+      <c r="J26" s="9">
+        <v>211</v>
+      </c>
+      <c r="K26" s="9">
         <v>234</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L26" s="9">
+        <v>234</v>
+      </c>
+      <c r="M26" s="9">
+        <v>234</v>
+      </c>
+      <c r="N26" s="9">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F27" s="11">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G27" s="11">
         <v>24</v>
@@ -1002,10 +1287,25 @@
         <v>24</v>
       </c>
       <c r="I27" s="11">
+        <v>20</v>
+      </c>
+      <c r="J27" s="11">
+        <v>20</v>
+      </c>
+      <c r="K27" s="11">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L27" s="11">
+        <v>24</v>
+      </c>
+      <c r="M27" s="11">
+        <v>24</v>
+      </c>
+      <c r="N27" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1014,8 +1314,13 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1024,8 +1329,13 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1034,8 +1344,13 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1044,6 +1359,11 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/siman/sekhouz/official/quarterly.xlsx
+++ b/database/industries/siman/sekhouz/official/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhouz\official\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhouz\official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA863B67-A3CA-4892-AF24-578D4CB58C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8D37CA-E57B-4337-B4B4-AAB862BC9EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>هزینه های عمومی و اداری</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>هزینه حمل و نقل و انتقال</t>
@@ -557,12 +557,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -577,7 +577,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -594,7 +594,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -611,7 +611,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -626,7 +626,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -643,7 +643,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -660,7 +660,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -675,7 +675,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -712,7 +712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -727,44 +727,44 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>260546</v>
+        <v>207394</v>
       </c>
       <c r="F10" s="9">
-        <v>207394</v>
+        <v>315925</v>
       </c>
       <c r="G10" s="9">
-        <v>315925</v>
+        <v>84595</v>
       </c>
       <c r="H10" s="9">
-        <v>84595</v>
+        <v>455581</v>
       </c>
       <c r="I10" s="9">
-        <v>455581</v>
+        <v>553197</v>
       </c>
       <c r="J10" s="9">
-        <v>553197</v>
+        <v>501708</v>
       </c>
       <c r="K10" s="9">
-        <v>501708</v>
+        <v>435006</v>
       </c>
       <c r="L10" s="9">
-        <v>435006</v>
+        <v>406444</v>
       </c>
       <c r="M10" s="9">
-        <v>406444</v>
+        <v>787781</v>
       </c>
       <c r="N10" s="9">
-        <v>787781</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>702897</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
@@ -838,44 +838,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>1240</v>
+        <v>705</v>
       </c>
       <c r="F13" s="11">
-        <v>705</v>
+        <v>-1283</v>
       </c>
       <c r="G13" s="11">
-        <v>-1283</v>
+        <v>637</v>
       </c>
       <c r="H13" s="11">
-        <v>637</v>
+        <v>50</v>
       </c>
       <c r="I13" s="11">
-        <v>50</v>
+        <v>765</v>
       </c>
       <c r="J13" s="11">
-        <v>765</v>
+        <v>1094</v>
       </c>
       <c r="K13" s="11">
-        <v>1094</v>
+        <v>0</v>
       </c>
       <c r="L13" s="11">
-        <v>0</v>
+        <v>1211</v>
       </c>
       <c r="M13" s="11">
-        <v>1211</v>
+        <v>-1211</v>
       </c>
       <c r="N13" s="11">
-        <v>-1211</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -912,118 +912,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>255</v>
+        <v>-139</v>
       </c>
       <c r="F15" s="11">
-        <v>-139</v>
+        <v>515</v>
       </c>
       <c r="G15" s="11">
-        <v>515</v>
+        <v>76</v>
       </c>
       <c r="H15" s="11">
-        <v>76</v>
+        <v>322</v>
       </c>
       <c r="I15" s="11">
-        <v>322</v>
+        <v>144</v>
       </c>
       <c r="J15" s="11">
-        <v>144</v>
+        <v>313</v>
       </c>
       <c r="K15" s="11">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="L15" s="11">
-        <v>355</v>
+        <v>166</v>
       </c>
       <c r="M15" s="11">
-        <v>166</v>
+        <v>-68</v>
       </c>
       <c r="N15" s="11">
-        <v>-68</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-215</v>
+        <v>92</v>
       </c>
       <c r="F16" s="9">
-        <v>92</v>
+        <v>2354</v>
       </c>
       <c r="G16" s="9">
-        <v>2354</v>
+        <v>563</v>
       </c>
       <c r="H16" s="9">
-        <v>563</v>
+        <v>3987</v>
       </c>
       <c r="I16" s="9">
-        <v>3987</v>
+        <v>-4285</v>
       </c>
       <c r="J16" s="9">
-        <v>-4285</v>
+        <v>9147</v>
       </c>
       <c r="K16" s="9">
-        <v>9147</v>
+        <v>5511</v>
       </c>
       <c r="L16" s="9">
-        <v>5511</v>
+        <v>7251</v>
       </c>
       <c r="M16" s="9">
-        <v>7251</v>
+        <v>-12762</v>
       </c>
       <c r="N16" s="9">
-        <v>-12762</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>23129</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>7764</v>
+        <v>8395</v>
       </c>
       <c r="F17" s="11">
-        <v>8395</v>
+        <v>27867</v>
       </c>
       <c r="G17" s="11">
-        <v>27867</v>
+        <v>16726</v>
       </c>
       <c r="H17" s="11">
-        <v>16726</v>
+        <v>23878</v>
       </c>
       <c r="I17" s="11">
-        <v>23878</v>
+        <v>-14449</v>
       </c>
       <c r="J17" s="11">
-        <v>-14449</v>
+        <v>47376</v>
       </c>
       <c r="K17" s="11">
-        <v>47376</v>
+        <v>15618</v>
       </c>
       <c r="L17" s="11">
-        <v>15618</v>
+        <v>38207</v>
       </c>
       <c r="M17" s="11">
-        <v>38207</v>
+        <v>17300</v>
       </c>
       <c r="N17" s="11">
-        <v>17300</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>20744</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
@@ -1060,81 +1060,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>39725</v>
+        <v>-11575</v>
       </c>
       <c r="F19" s="11">
-        <v>-11575</v>
+        <v>67242</v>
       </c>
       <c r="G19" s="11">
-        <v>67242</v>
+        <v>252896</v>
       </c>
       <c r="H19" s="11">
-        <v>252896</v>
+        <v>-223817</v>
       </c>
       <c r="I19" s="11">
-        <v>-223817</v>
+        <v>40562</v>
       </c>
       <c r="J19" s="11">
-        <v>40562</v>
+        <v>28237</v>
       </c>
       <c r="K19" s="11">
-        <v>28237</v>
+        <v>23808</v>
       </c>
       <c r="L19" s="11">
-        <v>23808</v>
+        <v>37312</v>
       </c>
       <c r="M19" s="11">
-        <v>37312</v>
+        <v>37376</v>
       </c>
       <c r="N19" s="11">
-        <v>37376</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>69262</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>309315</v>
+        <v>204872</v>
       </c>
       <c r="F20" s="13">
-        <v>204872</v>
+        <v>412620</v>
       </c>
       <c r="G20" s="13">
-        <v>412620</v>
+        <v>355493</v>
       </c>
       <c r="H20" s="13">
-        <v>355493</v>
+        <v>260001</v>
       </c>
       <c r="I20" s="13">
-        <v>260001</v>
+        <v>575934</v>
       </c>
       <c r="J20" s="13">
-        <v>575934</v>
+        <v>587875</v>
       </c>
       <c r="K20" s="13">
-        <v>587875</v>
+        <v>480298</v>
       </c>
       <c r="L20" s="13">
-        <v>480298</v>
+        <v>490591</v>
       </c>
       <c r="M20" s="13">
-        <v>490591</v>
+        <v>828416</v>
       </c>
       <c r="N20" s="13">
-        <v>828416</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>819858</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1149,7 +1149,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1164,7 +1164,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1179,7 +1179,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>25</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1231,7 +1231,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>26</v>
       </c>
@@ -1241,19 +1241,19 @@
         <v>226</v>
       </c>
       <c r="F26" s="9">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="G26" s="9">
         <v>234</v>
       </c>
       <c r="H26" s="9">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="I26" s="9">
         <v>211</v>
       </c>
       <c r="J26" s="9">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="K26" s="9">
         <v>234</v>
@@ -1265,10 +1265,10 @@
         <v>234</v>
       </c>
       <c r="N26" s="9">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>27</v>
       </c>
@@ -1278,19 +1278,19 @@
         <v>26</v>
       </c>
       <c r="F27" s="11">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G27" s="11">
         <v>24</v>
       </c>
       <c r="H27" s="11">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I27" s="11">
         <v>20</v>
       </c>
       <c r="J27" s="11">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K27" s="11">
         <v>24</v>
@@ -1302,10 +1302,10 @@
         <v>24</v>
       </c>
       <c r="N27" s="11">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1320,7 +1320,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1335,7 +1335,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1350,7 +1350,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
